--- a/data/labeled_claims/gdp_nominal_claims.xlsx
+++ b/data/labeled_claims/gdp_nominal_claims.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="709">
   <si>
     <t>Y</t>
   </si>
@@ -2151,6 +2151,9 @@
   </si>
   <si>
     <t>kb_value</t>
+  </si>
+  <si>
+    <t>sentence</t>
   </si>
 </sst>
 </file>
@@ -2547,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2562,6 +2565,9 @@
       <c r="A1" t="s">
         <v>703</v>
       </c>
+      <c r="B1" t="s">
+        <v>708</v>
+      </c>
       <c r="C1" t="s">
         <v>704</v>
       </c>

--- a/data/labeled_claims/gdp_nominal_claims.xlsx
+++ b/data/labeled_claims/gdp_nominal_claims.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="710">
   <si>
     <t>Y</t>
   </si>
@@ -2154,6 +2154,9 @@
   </si>
   <si>
     <t>sentence</t>
+  </si>
+  <si>
+    <t>dep</t>
   </si>
 </sst>
 </file>
@@ -2550,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2577,6 +2580,9 @@
       <c r="F1" t="s">
         <v>707</v>
       </c>
+      <c r="H1" t="s">
+        <v>709</v>
+      </c>
       <c r="I1" t="s">
         <v>706</v>
       </c>
